--- a/output/2017-03-01 to 2017-04-01.xlsx
+++ b/output/2017-03-01 to 2017-04-01.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="44">
   <si>
     <t>name</t>
   </si>
@@ -77,7 +77,7 @@
     <t>['cfop_NH']</t>
   </si>
   <si>
-    <t>['cfop_CHOUDHURY', 'cfop_RRC']</t>
+    <t>['cfop_RRC', 'cfop_CHOUDHURY']</t>
   </si>
   <si>
     <t>['cfop_SHA']</t>
@@ -101,6 +101,9 @@
     <t>project</t>
   </si>
   <si>
+    <t>users</t>
+  </si>
+  <si>
     <t>2016-08-101-01</t>
   </si>
   <si>
@@ -114,6 +117,21 @@
   </si>
   <si>
     <t>2017-03-103-01</t>
+  </si>
+  <si>
+    <t>['Arun Lakshmanan', 'Mitchell Jones']</t>
+  </si>
+  <si>
+    <t>['Ashutosh Dhekne']</t>
+  </si>
+  <si>
+    <t>['Chawla, Karan Gansham']</t>
+  </si>
+  <si>
+    <t>['Won Dong Shin']</t>
+  </si>
+  <si>
+    <t>['Aygen Berk Cagilci']</t>
   </si>
   <si>
     <t>cfop_RRC</t>
@@ -797,13 +815,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
         <v>26</v>
       </c>
@@ -813,13 +831,16 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C2">
         <v>32</v>
@@ -827,13 +848,16 @@
       <c r="D2">
         <v>42.95302013422819</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C3">
         <v>16.5</v>
@@ -841,13 +865,16 @@
       <c r="D3">
         <v>22.14765100671141</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C4">
         <v>14</v>
@@ -855,13 +882,16 @@
       <c r="D4">
         <v>18.79194630872483</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C5">
         <v>7</v>
@@ -869,19 +899,25 @@
       <c r="D5">
         <v>9.395973154362416</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C6">
         <v>5</v>
       </c>
       <c r="D6">
         <v>6.711409395973154</v>
+      </c>
+      <c r="E6" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -913,7 +949,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="C2">
         <v>33</v>
@@ -927,7 +963,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="C3">
         <v>32</v>
@@ -941,7 +977,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="C4">
         <v>16.5</v>
@@ -955,7 +991,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="C5">
         <v>14</v>
@@ -969,7 +1005,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="C6">
         <v>10</v>
@@ -983,7 +1019,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="C7">
         <v>7</v>
